--- a/Data/Optimised_Networks/manual_search_avg_mse 2_20-12_50_0.0007_40.xlsx
+++ b/Data/Optimised_Networks/manual_search_avg_mse 2_20-12_50_0.0007_40.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00630292170208847</v>
+        <v>0.005949455435654161</v>
       </c>
     </row>
     <row r="3">
